--- a/utils/demo_data/DAVID_DiffExp.xlsx
+++ b/utils/demo_data/DAVID_DiffExp.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiqbal/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jboucas/flaski/utils/demo_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03230169-74CF-EB49-A93E-482350DA8108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDFCB38-B94E-0148-B5B5-2C446A786FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2800" windowWidth="27640" windowHeight="16940" xr2:uid="{8870FA39-9B19-244F-A829-3EC92DA0A0B5}"/>
+    <workbookView xWindow="3320" yWindow="2780" windowWidth="27640" windowHeight="16940" xr2:uid="{8870FA39-9B19-244F-A829-3EC92DA0A0B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -576,7 +583,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
